--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operation</t>
+          <t>Transformation</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -567,416 +567,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>APAC</t>
+          <t>In</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>aussiecomehome.com</t>
+          <t>randstad.in</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operation</t>
+          <t>Transformation</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=spf1 mx ip4:167.89.28.224 include:_spf.google.com include:spf_c.oraclecloud.com include:396971.spf10.hubspotemail.net include:mail.zendesk.com ~all</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>v=DMARC1;p=reject;pct=100;rua=mailto:dmarc.reports.b@toolkit.randstadholding.com;ruf=mailto:dmarc.rufreports@toolkit.randstadholding.com</t>
+          <t>v=DMARC1;p=quarantine;pct=100;rua=mailto:dmarc.reports@randstad.in;ruf=mailto:dmarc.rufreports@randstad.in</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>aussiecomehome.com.au</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>v=spf1 -all</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>v=DMARC1;p=reject;pct=100;rua=mailto:dmarc.reports.b@toolkit.randstadholding.com;ruf=mailto:dmarc.rufreports@toolkit.randstadholding.com</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>capsecur.com.au</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>v=spf1 -all</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>v=DMARC1;p=reject;pct=100;rua=mailto:dmarc.reports.b@toolkit.randstadholding.com;ruf=mailto:dmarc.rufreports@toolkit.randstadholding.com</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>claytonford.co.nz</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>v=spf1 -all</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>v=DMARC1;p=reject;pct=100;rua=mailto:dmarc.reports.b@toolkit.randstadholding.com;ruf=mailto:dmarc.rufreports@toolkit.randstadholding.com</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>claytonford.com.au</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>v=spf1 -all</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>v=DMARC1;p=reject;pct=100;rua=mailto:dmarc.reports.b@toolkit.randstadholding.com;ruf=mailto:dmarc.rufreports@toolkit.randstadholding.com</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>claytonford.com.sg</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>v=spf1 -all</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>v=DMARC1;p=reject;pct=100;rua=mailto:dmarc.reports.b@toolkit.randstadholding.com;ruf=mailto:dmarc.rufreports@toolkit.randstadholding.com</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>clinicalone.co.nz</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>v=spf1 -all</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>v=DMARC1;p=reject;pct=100;rua=mailto:dmarc.reports.b@toolkit.randstadholding.com;ruf=mailto:dmarc.rufreports@toolkit.randstadholding.com</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>clinicalone.com.au</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>v=spf1 -all</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>v=DMARC1;p=reject;pct=100;rua=mailto:dmarc.reports.b@toolkit.randstadholding.com;ruf=mailto:dmarc.rufreports@toolkit.randstadholding.com</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>clinicalone.com.sg</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>v=spf1 -all</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>v=DMARC1;p=reject;pct=100;rua=mailto:dmarc.reports.b@toolkit.randstadholding.com;ruf=mailto:dmarc.rufreports@toolkit.randstadholding.com</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>coopersrecruitment.com.au</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>v=spf1 -all</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>v=DMARC1;p=reject;pct=100;rua=mailto:dmarc.reports.b@toolkit.randstadholding.com;ruf=mailto:dmarc.rufreports@toolkit.randstadholding.com</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>edenbrown.co.nz</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>v=spf1 -all</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>v=DMARC1;p=reject;pct=100;rua=mailto:dmarc.reports.b@toolkit.randstadholding.com;ruf=mailto:dmarc.rufreports@toolkit.randstadholding.com</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>randstad.in</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>v=spf1 mx ip4:167.89.28.224 include:_spf.google.com include:spf_c.oraclecloud.com include:396971.spf10.hubspotemail.net include:mail.zendesk.com ~all</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>v=DMARC1;p=quarantine;pct=100;rua=mailto:dmarc.reports@randstad.in;ruf=mailto:dmarc.rufreports@randstad.in</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
           <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>randstad.com</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>v=spf1 include:396971.spf10.hubspotemail.net include:spf1.randstad.com include:spf2.randstad.com include:_spf.google.com ~all</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>v=DMARC1;p=reject;sp=reject;pct=100;rua=mailto:dmarc.reports@randstad.com;ruf=mailto:dmarc.rufreports@randstad.com</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
     </row>
